--- a/rtm_prediction/new/feature_importance.xlsx
+++ b/rtm_prediction/new/feature_importance.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
-    <sheet name="gain" sheetId="3" r:id="rId2"/>
-    <sheet name="weight" sheetId="5" r:id="rId3"/>
-    <sheet name="cover" sheetId="4" r:id="rId4"/>
+    <sheet name="XGBoost" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="LGBM" sheetId="7" r:id="rId3"/>
+    <sheet name="gain" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="weight" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="cover" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">cover!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gain!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet5!$B$1:$H$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">weight!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">cover!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">gain!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LGBM!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">weight!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">XGBoost!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="193">
   <si>
     <t>VIN</t>
   </si>
@@ -493,6 +496,196 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_name</t>
+  </si>
+  <si>
+    <t>acc_pedal(50%)</t>
+  </si>
+  <si>
+    <t>acc_pedal(99%)</t>
+  </si>
+  <si>
+    <t>acc_pedal(mean)</t>
+  </si>
+  <si>
+    <t>BMS_charge_power_max</t>
+  </si>
+  <si>
+    <t>BMS_charge_power_mean</t>
+  </si>
+  <si>
+    <t>BMS_charge_temp_max</t>
+  </si>
+  <si>
+    <t>BMS_charge_temp_mean</t>
+  </si>
+  <si>
+    <t>BMS_discharge_power_max</t>
+  </si>
+  <si>
+    <t>BMS_discharge_power_mean</t>
+  </si>
+  <si>
+    <t>BMS_discharge_temp_max</t>
+  </si>
+  <si>
+    <t>BMS_discharge_temp_mean</t>
+  </si>
+  <si>
+    <t>BMS_discharge_temp_min</t>
+  </si>
+  <si>
+    <t>BMS_discharge_temp_min.1</t>
+  </si>
+  <si>
+    <t>cell_charge_temp_diff_max</t>
+  </si>
+  <si>
+    <t>cell_charge_temp_diff_mean</t>
+  </si>
+  <si>
+    <t>cell_charge_temp_max</t>
+  </si>
+  <si>
+    <t>cell_charge_temp_min</t>
+  </si>
+  <si>
+    <t>cell_discharge_temp_diff_max</t>
+  </si>
+  <si>
+    <t>cell_discharge_temp_diff_mean</t>
+  </si>
+  <si>
+    <t>cell_discharge_temp_max</t>
+  </si>
+  <si>
+    <t>cell_discharge_temp_min</t>
+  </si>
+  <si>
+    <t>charge_end_SOC_50%</t>
+  </si>
+  <si>
+    <t>charge_end_SOC_mean</t>
+  </si>
+  <si>
+    <t>charge_start_SOC_50%</t>
+  </si>
+  <si>
+    <t>charge_start_SOC_mean</t>
+  </si>
+  <si>
+    <t>charge_times</t>
+  </si>
+  <si>
+    <t>daily_mile_(mean)</t>
+  </si>
+  <si>
+    <t>dec_pedal(50%)</t>
+  </si>
+  <si>
+    <t>dec_pedal(99%)</t>
+  </si>
+  <si>
+    <t>dec_pedal(mean)</t>
+  </si>
+  <si>
+    <t>driving_time</t>
+  </si>
+  <si>
+    <t>E-motor_speed_max</t>
+  </si>
+  <si>
+    <t>E-motor_speed_mean</t>
+  </si>
+  <si>
+    <t>E-motor_temp_1%</t>
+  </si>
+  <si>
+    <t>E-motor_temp_50%</t>
+  </si>
+  <si>
+    <t>E-motor_temp_99%</t>
+  </si>
+  <si>
+    <t>E-motor_temp_mean</t>
+  </si>
+  <si>
+    <t>E-motor_torque-_max</t>
+  </si>
+  <si>
+    <t>E-motor_torque-_mean</t>
+  </si>
+  <si>
+    <t>E-motor_torque-_percentage</t>
+  </si>
+  <si>
+    <t>E-motor_torque+_max</t>
+  </si>
+  <si>
+    <t>E-motor_torque+_mean</t>
+  </si>
+  <si>
+    <t>EV_%</t>
+  </si>
+  <si>
+    <t>FV_%</t>
+  </si>
+  <si>
+    <t>LE_temp_1%</t>
+  </si>
+  <si>
+    <t>LE_temp_50%</t>
+  </si>
+  <si>
+    <t>LE_temp_99%</t>
+  </si>
+  <si>
+    <t>LE_temp_mean</t>
+  </si>
+  <si>
+    <t>mode2_percentage</t>
+  </si>
+  <si>
+    <t>mode3_percentage</t>
+  </si>
+  <si>
+    <t>v_(mean)</t>
+  </si>
+  <si>
+    <t>v_50%</t>
+  </si>
+  <si>
+    <t>v_99%</t>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGBM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +728,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -548,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -564,6 +769,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,7 +874,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -914,14 +1131,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
@@ -942,1149 +1160,1158 @@
       <c r="E1" t="s">
         <v>65</v>
       </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
+      <c r="A2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>20.979236598702901</v>
+        <v>32.208562238049602</v>
       </c>
       <c r="D2" s="1">
-        <v>217</v>
+        <v>2284</v>
       </c>
       <c r="E2" s="1">
-        <v>824.421864305437</v>
+        <v>3723.9590539163401</v>
       </c>
       <c r="F2">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>23.784020997165999</v>
+        <v>27.076846925668399</v>
       </c>
       <c r="D3" s="1">
-        <v>1012</v>
+        <v>1790</v>
       </c>
       <c r="E3" s="1">
-        <v>1914.0536695972501</v>
+        <v>1652.7361884235399</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>21.976470448154402</v>
+        <v>24.168411754215001</v>
       </c>
       <c r="D4" s="1">
-        <v>926</v>
+        <v>1779</v>
       </c>
       <c r="E4" s="1">
-        <v>1371.5057971440799</v>
+        <v>1700.8897965849201</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>24.168411754215001</v>
+        <v>37.134874462843698</v>
       </c>
       <c r="D5" s="1">
-        <v>1779</v>
+        <v>1664</v>
       </c>
       <c r="E5" s="1">
-        <v>1700.8897965849201</v>
+        <v>2977.83846597199</v>
       </c>
       <c r="F5">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>37.134874462843698</v>
+        <v>33.668379545872</v>
       </c>
       <c r="D6" s="1">
-        <v>1664</v>
+        <v>1583</v>
       </c>
       <c r="E6" s="1">
-        <v>2977.83846597199</v>
+        <v>3082.4046469139598</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>25.662499464995399</v>
+        <v>32.298952091587402</v>
       </c>
       <c r="D7" s="1">
-        <v>1095</v>
+        <v>1579</v>
       </c>
       <c r="E7" s="1">
-        <v>1615.48893610409</v>
+        <v>2832.2245561941299</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
+      <c r="A8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="1">
-        <v>33.781729379734401</v>
+        <v>56.372789253123003</v>
       </c>
       <c r="D8" s="1">
-        <v>693</v>
+        <v>1357</v>
       </c>
       <c r="E8" s="1">
-        <v>1314.13811632583</v>
+        <v>4033.0124240471901</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>31</v>
-      </c>
       <c r="H8">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>29.9873582129234</v>
+        <v>23.042604484165601</v>
       </c>
       <c r="D9" s="1">
-        <v>730</v>
+        <v>1298</v>
       </c>
       <c r="E9" s="1">
-        <v>1254.60889128995</v>
+        <v>1115.5099478817001</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
+      <c r="A10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="1">
-        <v>24.982074673313601</v>
+        <v>36.904236797452697</v>
       </c>
       <c r="D10" s="1">
-        <v>1180</v>
+        <v>1250</v>
       </c>
       <c r="E10" s="1">
-        <v>1384.08058500422</v>
+        <v>2859.7446101753299</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
+      <c r="A11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="1">
-        <v>25.436460626393199</v>
+        <v>28.5644553119844</v>
       </c>
       <c r="D11" s="1">
-        <v>1048</v>
+        <v>1222</v>
       </c>
       <c r="E11" s="1">
-        <v>1933.1146419157701</v>
+        <v>2271.3993783995002</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
-        <v>25.578571816814701</v>
+        <v>24.982074673313601</v>
       </c>
       <c r="D12" s="1">
-        <v>556</v>
+        <v>1180</v>
       </c>
       <c r="E12" s="1">
-        <v>2403.0348645614899</v>
+        <v>1384.08058500422</v>
       </c>
       <c r="F12">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
         <v>38</v>
-      </c>
-      <c r="H12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1">
-        <v>24.060970621845499</v>
+        <v>25.662499464995399</v>
       </c>
       <c r="D13" s="1">
-        <v>492</v>
+        <v>1095</v>
       </c>
       <c r="E13" s="1">
-        <v>1365.34956010424</v>
+        <v>1615.48893610409</v>
       </c>
       <c r="F13">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G13">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
+      <c r="A14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="1">
-        <v>24.842067290973802</v>
+        <v>54.6620384246988</v>
       </c>
       <c r="D14" s="1">
-        <v>611</v>
+        <v>1068</v>
       </c>
       <c r="E14" s="1">
-        <v>1977.2047885798099</v>
+        <v>4932.1511000353003</v>
       </c>
       <c r="F14">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>25.769042053547398</v>
+        <v>25.436460626393199</v>
       </c>
       <c r="D15" s="1">
-        <v>517</v>
+        <v>1048</v>
       </c>
       <c r="E15" s="1">
-        <v>742.53034051429404</v>
+        <v>1933.1146419157701</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
-        <v>30.136829182990098</v>
+        <v>28.9695745927148</v>
       </c>
       <c r="D16" s="1">
-        <v>204</v>
+        <v>1038</v>
       </c>
       <c r="E16" s="1">
-        <v>2328.46689694833</v>
+        <v>1830.3436693649101</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>23.517639109647099</v>
+        <v>23.4422279795908</v>
       </c>
       <c r="D17" s="1">
-        <v>938</v>
+        <v>1027</v>
       </c>
       <c r="E17" s="1">
-        <v>1386.0672217382901</v>
+        <v>1815.5678906758701</v>
       </c>
       <c r="F17">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>30.154229814152298</v>
+        <v>23.784020997165999</v>
       </c>
       <c r="D18" s="1">
-        <v>151</v>
+        <v>1012</v>
       </c>
       <c r="E18" s="1">
-        <v>2755.4272590170799</v>
+        <v>1914.0536695972501</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
+      <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="1">
-        <v>25.317813463145999</v>
+        <v>27.9926544493973</v>
       </c>
       <c r="D19" s="1">
-        <v>89</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="1">
-        <v>1598.07975030629</v>
+        <v>2302.80125881194</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
+      <c r="A20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="1">
-        <v>21.051736376599202</v>
+        <v>34.304167310619697</v>
       </c>
       <c r="D20" s="1">
-        <v>287</v>
+        <v>1007</v>
       </c>
       <c r="E20" s="1">
-        <v>1721.2667573030601</v>
+        <v>2256.2538138785098</v>
       </c>
       <c r="F20">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1">
+        <v>36.354205353771299</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2417.3580553154002</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
-        <v>32.298952091587402</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1579</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2832.2245561941299</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
       <c r="G21">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1">
-        <v>23.8288396636428</v>
+        <v>23.517639109647099</v>
       </c>
       <c r="D22" s="1">
-        <v>84</v>
+        <v>938</v>
       </c>
       <c r="E22" s="1">
-        <v>1265.83129609547</v>
+        <v>1386.0672217382901</v>
       </c>
       <c r="F22">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>28.9194087320212</v>
+        <v>21.976470448154402</v>
       </c>
       <c r="D23" s="1">
-        <v>94</v>
+        <v>926</v>
       </c>
       <c r="E23" s="1">
-        <v>3424.9744890485099</v>
+        <v>1371.5057971440799</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G23">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
-        <v>31.947319949504301</v>
+        <v>24.8562139624328</v>
       </c>
       <c r="D24" s="1">
-        <v>368</v>
+        <v>908</v>
       </c>
       <c r="E24" s="1">
-        <v>1175.6954547243699</v>
+        <v>1295.3331692275401</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="1">
-        <v>36.354205353771299</v>
+        <v>25.3569304319882</v>
       </c>
       <c r="D25" s="1">
-        <v>1006</v>
+        <v>852</v>
       </c>
       <c r="E25" s="1">
-        <v>2417.3580553154002</v>
+        <v>1886.8475435718899</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
-        <v>22.980993290376301</v>
+        <v>23.6362972232094</v>
       </c>
       <c r="D26" s="1">
-        <v>372</v>
+        <v>845</v>
       </c>
       <c r="E26" s="1">
-        <v>1111.97821066252</v>
+        <v>855.33627717913703</v>
       </c>
       <c r="F26">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>23.016359698921399</v>
+        <v>21.507887960195401</v>
       </c>
       <c r="D27" s="1">
-        <v>611</v>
+        <v>838</v>
       </c>
       <c r="E27" s="1">
-        <v>847.44066710991694</v>
+        <v>1088.5211602721499</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G27">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27.704384806498101</v>
+      </c>
+      <c r="D28" s="1">
+        <v>835</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1964.4566831571599</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
-        <v>32.971070666880102</v>
-      </c>
-      <c r="D28" s="1">
-        <v>584</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3375.6582159792401</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
       <c r="G28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>28.9695745927148</v>
+        <v>22.465013572860201</v>
       </c>
       <c r="D29" s="1">
-        <v>1038</v>
+        <v>759</v>
       </c>
       <c r="E29" s="1">
-        <v>1830.3436693649101</v>
+        <v>1576.78973082486</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
-        <v>23.612380351956499</v>
+        <v>29.9873582129234</v>
       </c>
       <c r="D30" s="1">
-        <v>299</v>
+        <v>730</v>
       </c>
       <c r="E30" s="1">
-        <v>3001.5434044107701</v>
+        <v>1254.60889128995</v>
       </c>
       <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
         <v>46</v>
       </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>27.9926544493973</v>
+        <v>21.703520261527299</v>
       </c>
       <c r="D31" s="1">
-        <v>1012</v>
+        <v>722</v>
       </c>
       <c r="E31" s="1">
-        <v>2302.80125881194</v>
+        <v>1968.3805692528999</v>
       </c>
       <c r="F31">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1">
+        <v>33.781729379734401</v>
+      </c>
+      <c r="D32" s="1">
+        <v>693</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1314.13811632583</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24.459823553915498</v>
+      </c>
+      <c r="D33" s="1">
+        <v>651</v>
+      </c>
+      <c r="E33" s="1">
+        <v>865.006122802596</v>
+      </c>
+      <c r="F33">
+        <v>39</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>25.289149868863301</v>
+      </c>
+      <c r="D34" s="1">
+        <v>644</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1131.21209923992</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
-        <v>23.042604484165601</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1298</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1115.5099478817001</v>
-      </c>
-      <c r="F32">
-        <v>51</v>
-      </c>
-      <c r="G32">
-        <v>8</v>
-      </c>
-      <c r="H32">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="1">
-        <v>56.372789253123003</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1357</v>
-      </c>
-      <c r="E33" s="1">
-        <v>4033.0124240471901</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="1">
-        <v>36.904236797452697</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1250</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2859.7446101753299</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
       <c r="G34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>25.289149868863301</v>
+        <v>24.842067290973802</v>
       </c>
       <c r="D35" s="1">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="E35" s="1">
-        <v>1131.21209923992</v>
+        <v>1977.2047885798099</v>
       </c>
       <c r="F35">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>26.8835788510819</v>
+        <v>23.016359698921399</v>
       </c>
       <c r="D36" s="1">
-        <v>305</v>
+        <v>611</v>
       </c>
       <c r="E36" s="1">
-        <v>2506.6828017050402</v>
+        <v>847.44066710991694</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G36">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>22.731319691044899</v>
+        <v>32.971070666880102</v>
       </c>
       <c r="D37" s="1">
-        <v>178</v>
+        <v>584</v>
       </c>
       <c r="E37" s="1">
-        <v>856.73714357578604</v>
+        <v>3375.6582159792401</v>
       </c>
       <c r="F37">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>26.885685207066199</v>
+        <v>22.0627699131093</v>
       </c>
       <c r="D38" s="1">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="E38" s="1">
-        <v>1689.2156596725599</v>
+        <v>851.02371552545003</v>
       </c>
       <c r="F38">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G38">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1">
-        <v>25.248522530273299</v>
+        <v>25.578571816814701</v>
       </c>
       <c r="D39" s="1">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="E39" s="1">
-        <v>1000.38122413357</v>
+        <v>2403.0348645614899</v>
       </c>
       <c r="F39">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>23.6362972232094</v>
+        <v>26.885685207066199</v>
       </c>
       <c r="D40" s="1">
-        <v>845</v>
+        <v>525</v>
       </c>
       <c r="E40" s="1">
-        <v>855.33627717913703</v>
+        <v>1689.2156596725599</v>
       </c>
       <c r="F40">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>25.248522530273299</v>
+      </c>
+      <c r="D41" s="1">
+        <v>518</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1000.38122413357</v>
+      </c>
+      <c r="F41">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
         <v>52</v>
-      </c>
-      <c r="C41" s="1">
-        <v>28.5644553119844</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1222</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2271.3993783995002</v>
-      </c>
-      <c r="F41">
-        <v>18</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1">
-        <v>25.3569304319882</v>
+        <v>25.769042053547398</v>
       </c>
       <c r="D42" s="1">
-        <v>852</v>
+        <v>517</v>
       </c>
       <c r="E42" s="1">
-        <v>1886.8475435718899</v>
+        <v>742.53034051429404</v>
       </c>
       <c r="F42">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G42">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>60</v>
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>54.6620384246988</v>
+        <v>24.060970621845499</v>
       </c>
       <c r="D43" s="1">
-        <v>1068</v>
+        <v>492</v>
       </c>
       <c r="E43" s="1">
-        <v>4932.1511000353003</v>
+        <v>1365.34956010424</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G43">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>24.8562139624328</v>
+        <v>24.5758377314779</v>
       </c>
       <c r="D44" s="1">
-        <v>908</v>
+        <v>481</v>
       </c>
       <c r="E44" s="1">
-        <v>1295.3331692275401</v>
+        <v>1370.1851888758599</v>
       </c>
       <c r="F44">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>22.0627699131093</v>
+        <v>26.238359870524899</v>
       </c>
       <c r="D45" s="1">
-        <v>567</v>
+        <v>461</v>
       </c>
       <c r="E45" s="1">
-        <v>851.02371552545003</v>
+        <v>1834.1916081490799</v>
       </c>
       <c r="F45">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2115,448 +2342,452 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>27.076846925668399</v>
+        <v>22.980993290376301</v>
       </c>
       <c r="D47" s="1">
-        <v>1790</v>
+        <v>372</v>
       </c>
       <c r="E47" s="1">
-        <v>1652.7361884235399</v>
+        <v>1111.97821066252</v>
       </c>
       <c r="F47">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1">
-        <v>27.290783347676001</v>
+        <v>31.947319949504301</v>
       </c>
       <c r="D48" s="1">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="E48" s="1">
-        <v>974.23198044056301</v>
+        <v>1175.6954547243699</v>
       </c>
       <c r="F48">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H48">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>26.432713877933999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>356</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3087.4415038348802</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49">
         <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>23.443229483974299</v>
-      </c>
-      <c r="D49" s="1">
-        <v>78</v>
-      </c>
-      <c r="E49" s="1">
-        <v>695.87478002140995</v>
-      </c>
-      <c r="F49">
-        <v>48</v>
-      </c>
-      <c r="G49">
-        <v>62</v>
-      </c>
-      <c r="H49">
-        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
-        <v>24.5758377314779</v>
+        <v>26.8835788510819</v>
       </c>
       <c r="D50" s="1">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="E50" s="1">
-        <v>1370.1851888758599</v>
+        <v>2506.6828017050402</v>
       </c>
       <c r="F50">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G50">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1">
+        <v>23.612380351956499</v>
+      </c>
+      <c r="D51" s="1">
+        <v>299</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3001.5434044107701</v>
+      </c>
+      <c r="F51">
         <v>46</v>
       </c>
-      <c r="C51" s="1">
-        <v>26.238359870524899</v>
-      </c>
-      <c r="D51" s="1">
-        <v>461</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1834.1916081490799</v>
-      </c>
-      <c r="F51">
-        <v>26</v>
-      </c>
       <c r="G51">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H51">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>68</v>
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>34.304167310619697</v>
+        <v>21.051736376599202</v>
       </c>
       <c r="D52" s="1">
-        <v>1007</v>
+        <v>287</v>
       </c>
       <c r="E52" s="1">
-        <v>2256.2538138785098</v>
+        <v>1721.2667573030601</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="H52">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1">
-        <v>22.465013572860201</v>
+        <v>20.979236598702901</v>
       </c>
       <c r="D53" s="1">
-        <v>759</v>
+        <v>217</v>
       </c>
       <c r="E53" s="1">
-        <v>1576.78973082486</v>
+        <v>824.421864305437</v>
       </c>
       <c r="F53">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G53">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
-        <v>23.079524673643402</v>
+        <v>22.152118672378499</v>
       </c>
       <c r="D54" s="1">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="E54" s="1">
-        <v>1469.3173063437901</v>
+        <v>1286.0452532946699</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G54">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H54">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1">
-        <v>22.152118672378499</v>
+        <v>27.290783347676001</v>
       </c>
       <c r="D55" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" s="1">
-        <v>1286.0452532946699</v>
+        <v>974.23198044056301</v>
       </c>
       <c r="F55">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H55">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C56" s="1">
-        <v>21.703520261527299</v>
+        <v>30.136829182990098</v>
       </c>
       <c r="D56" s="1">
-        <v>722</v>
+        <v>204</v>
       </c>
       <c r="E56" s="1">
-        <v>1968.3805692528999</v>
+        <v>2328.46689694833</v>
       </c>
       <c r="F56">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H56">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1">
-        <v>26.432713877933999</v>
+        <v>22.731319691044899</v>
       </c>
       <c r="D57" s="1">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="E57" s="1">
-        <v>3087.4415038348802</v>
+        <v>856.73714357578604</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G57">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1">
-        <v>27.704384806498101</v>
+        <v>30.154229814152298</v>
       </c>
       <c r="D58" s="1">
-        <v>835</v>
+        <v>151</v>
       </c>
       <c r="E58" s="1">
-        <v>1964.4566831571599</v>
+        <v>2755.4272590170799</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G58">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H58">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1">
-        <v>21.507887960195401</v>
+        <v>23.079524673643402</v>
       </c>
       <c r="D59" s="1">
-        <v>838</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1">
-        <v>1088.5211602721499</v>
+        <v>1469.3173063437901</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G59">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H59">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1">
-        <v>24.459823553915498</v>
+        <v>28.9194087320212</v>
       </c>
       <c r="D60" s="1">
-        <v>651</v>
+        <v>94</v>
       </c>
       <c r="E60" s="1">
-        <v>865.006122802596</v>
+        <v>3424.9744890485099</v>
       </c>
       <c r="F60">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G60">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H60">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>25.317813463145999</v>
+      </c>
+      <c r="D61" s="1">
+        <v>89</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1598.07975030629</v>
+      </c>
+      <c r="F61">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61">
         <v>34</v>
       </c>
-      <c r="C61" s="1">
-        <v>23.4422279795908</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1027</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1815.5678906758701</v>
-      </c>
-      <c r="F61">
-        <v>49</v>
-      </c>
-      <c r="G61">
-        <v>16</v>
-      </c>
-      <c r="H61">
-        <v>28</v>
-      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>0</v>
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C62" s="1">
-        <v>32.208562238049602</v>
+        <v>23.8288396636428</v>
       </c>
       <c r="D62" s="1">
-        <v>2284</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1">
-        <v>3723.9590539163401</v>
+        <v>1265.83129609547</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>4</v>
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C63" s="1">
-        <v>33.668379545872</v>
+        <v>23.443229483974299</v>
       </c>
       <c r="D63" s="1">
-        <v>1583</v>
+        <v>78</v>
       </c>
       <c r="E63" s="1">
-        <v>3082.4046469139598</v>
+        <v>695.87478002140995</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H63"/>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H63">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2564,6 +2795,1448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11">
+        <v>56.372789253123003</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="11">
+        <v>54.6620384246988</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="11">
+        <v>37.134874462843698</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="11">
+        <v>36.904236797452697</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="11">
+        <v>36.354205353771299</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="11">
+        <v>34.304167310619697</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="11">
+        <v>33.781729379734401</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="11">
+        <v>33.668379545872</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11">
+        <v>32.971070666880102</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="11">
+        <v>32.298952091587402</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="11">
+        <v>32.208562238049602</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1307</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>33731.895539999998</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="10">
+        <v>748</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>19368.916669999999</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>708</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>75113.219209999996</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="10">
+        <v>679</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>33908.220070000003</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>618</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>14520.544260000001</v>
+      </c>
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="10">
+        <v>544</v>
+      </c>
+      <c r="D7" s="10">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>14829.05797</v>
+      </c>
+      <c r="F7" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="10">
+        <v>539</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>12127.080389999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="10">
+        <v>537</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10">
+        <v>19297.490959999999</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="10">
+        <v>485</v>
+      </c>
+      <c r="D10" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10">
+        <v>13086.12832</v>
+      </c>
+      <c r="F10" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10">
+        <v>445</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>9159.4522500000003</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>396</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10">
+        <v>6927.10869</v>
+      </c>
+      <c r="F12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="10">
+        <v>358</v>
+      </c>
+      <c r="D13" s="10">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6814.4267659999996</v>
+      </c>
+      <c r="F13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="10">
+        <v>343</v>
+      </c>
+      <c r="D14" s="10">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10">
+        <v>6017.5857130000004</v>
+      </c>
+      <c r="F14" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="10">
+        <v>311</v>
+      </c>
+      <c r="D15" s="10">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10">
+        <v>6319.8211860000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="10">
+        <v>280</v>
+      </c>
+      <c r="D16" s="10">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5147.4115879999999</v>
+      </c>
+      <c r="F16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>252</v>
+      </c>
+      <c r="D17" s="10">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4077.2829040000001</v>
+      </c>
+      <c r="F17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="10">
+        <v>226</v>
+      </c>
+      <c r="D18" s="10">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4051.4386490000002</v>
+      </c>
+      <c r="F18" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="10">
+        <v>222</v>
+      </c>
+      <c r="D19" s="10">
+        <v>18</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3911.4706999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="10">
+        <v>217</v>
+      </c>
+      <c r="D20" s="10">
+        <v>19</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3310.2648450000002</v>
+      </c>
+      <c r="F20" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10">
+        <v>217</v>
+      </c>
+      <c r="D21" s="10">
+        <v>20</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3784.2080000000001</v>
+      </c>
+      <c r="F21" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="10">
+        <v>212</v>
+      </c>
+      <c r="D22" s="10">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3455.9110609999998</v>
+      </c>
+      <c r="F22" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="10">
+        <v>157</v>
+      </c>
+      <c r="D23" s="10">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2854.6688399999998</v>
+      </c>
+      <c r="F23" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="10">
+        <v>148</v>
+      </c>
+      <c r="D24" s="10">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2366.308004</v>
+      </c>
+      <c r="F24" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="10">
+        <v>148</v>
+      </c>
+      <c r="D25" s="10">
+        <v>24</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2706.2389640000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="10">
+        <v>146</v>
+      </c>
+      <c r="D26" s="10">
+        <v>25</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2374.9235840000001</v>
+      </c>
+      <c r="F26" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="10">
+        <v>143</v>
+      </c>
+      <c r="D27" s="10">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2190.719998</v>
+      </c>
+      <c r="F27" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="10">
+        <v>141</v>
+      </c>
+      <c r="D28" s="10">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2549.278898</v>
+      </c>
+      <c r="F28" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="10">
+        <v>136</v>
+      </c>
+      <c r="D29" s="10">
+        <v>28</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2261.2570970000002</v>
+      </c>
+      <c r="F29" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="10">
+        <v>135</v>
+      </c>
+      <c r="D30" s="10">
+        <v>29</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2074.596806</v>
+      </c>
+      <c r="F30" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="10">
+        <v>131</v>
+      </c>
+      <c r="D31" s="10">
+        <v>30</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2579.0068970000002</v>
+      </c>
+      <c r="F31" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="10">
+        <v>128</v>
+      </c>
+      <c r="D32" s="10">
+        <v>31</v>
+      </c>
+      <c r="E32" s="10">
+        <v>2082.652709</v>
+      </c>
+      <c r="F32" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="10">
+        <v>123</v>
+      </c>
+      <c r="D33" s="10">
+        <v>32</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2018.692155</v>
+      </c>
+      <c r="F33" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="10">
+        <v>121</v>
+      </c>
+      <c r="D34" s="10">
+        <v>33</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1948.245257</v>
+      </c>
+      <c r="F34" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="10">
+        <v>118</v>
+      </c>
+      <c r="D35" s="10">
+        <v>34</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1940.724573</v>
+      </c>
+      <c r="F35" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="10">
+        <v>115</v>
+      </c>
+      <c r="D36" s="10">
+        <v>35</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1791.601815</v>
+      </c>
+      <c r="F36" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="10">
+        <v>113</v>
+      </c>
+      <c r="D37" s="10">
+        <v>36</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1714.9689109999999</v>
+      </c>
+      <c r="F37" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="10">
+        <v>112</v>
+      </c>
+      <c r="D38" s="10">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1857.8123029999999</v>
+      </c>
+      <c r="F38" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="10">
+        <v>110</v>
+      </c>
+      <c r="D39" s="10">
+        <v>38</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1738.4959080000001</v>
+      </c>
+      <c r="F39" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="10">
+        <v>109</v>
+      </c>
+      <c r="D40" s="10">
+        <v>39</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1665.9590229999999</v>
+      </c>
+      <c r="F40" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="10">
+        <v>101</v>
+      </c>
+      <c r="D41" s="10">
+        <v>40</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1562.7790540000001</v>
+      </c>
+      <c r="F41" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="10">
+        <v>93</v>
+      </c>
+      <c r="D42" s="10">
+        <v>41</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1520.4632019999999</v>
+      </c>
+      <c r="F42" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="10">
+        <v>90</v>
+      </c>
+      <c r="D43" s="10">
+        <v>42</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1438.8786950000001</v>
+      </c>
+      <c r="F43" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="10">
+        <v>89</v>
+      </c>
+      <c r="D44" s="10">
+        <v>43</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1449.618072</v>
+      </c>
+      <c r="F44" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="10">
+        <v>88</v>
+      </c>
+      <c r="D45" s="10">
+        <v>44</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1437.340203</v>
+      </c>
+      <c r="F45" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="10">
+        <v>83</v>
+      </c>
+      <c r="D46" s="10">
+        <v>45</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1333.9428330000001</v>
+      </c>
+      <c r="F46" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="10">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10">
+        <v>46</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1333.248096</v>
+      </c>
+      <c r="F47" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="10">
+        <v>77</v>
+      </c>
+      <c r="D48" s="10">
+        <v>47</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1253.8693920000001</v>
+      </c>
+      <c r="F48" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="10">
+        <v>76</v>
+      </c>
+      <c r="D49" s="10">
+        <v>48</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1194.0119569999999</v>
+      </c>
+      <c r="F49" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="10">
+        <v>69</v>
+      </c>
+      <c r="D50" s="10">
+        <v>49</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1108.608997</v>
+      </c>
+      <c r="F50" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="10">
+        <v>49</v>
+      </c>
+      <c r="D51" s="10">
+        <v>50</v>
+      </c>
+      <c r="E51" s="10">
+        <v>810.49939540000003</v>
+      </c>
+      <c r="F51" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="10">
+        <v>47</v>
+      </c>
+      <c r="D52" s="10">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1184.1514070000001</v>
+      </c>
+      <c r="F52" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43</v>
+      </c>
+      <c r="D53" s="10">
+        <v>52</v>
+      </c>
+      <c r="E53" s="10">
+        <v>624.27606490000005</v>
+      </c>
+      <c r="F53" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="10">
+        <v>43</v>
+      </c>
+      <c r="D54" s="10">
+        <v>53</v>
+      </c>
+      <c r="E54" s="10">
+        <v>646.19859789999998</v>
+      </c>
+      <c r="F54" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="10">
+        <v>41</v>
+      </c>
+      <c r="D55" s="10">
+        <v>54</v>
+      </c>
+      <c r="E55" s="10">
+        <v>758.97679419999997</v>
+      </c>
+      <c r="F55" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="10">
+        <v>38</v>
+      </c>
+      <c r="D56" s="10">
+        <v>55</v>
+      </c>
+      <c r="E56" s="10">
+        <v>614.12429999999995</v>
+      </c>
+      <c r="F56" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="10">
+        <v>35</v>
+      </c>
+      <c r="D57" s="10">
+        <v>56</v>
+      </c>
+      <c r="E57" s="10">
+        <v>551.00980089999996</v>
+      </c>
+      <c r="F57" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="10">
+        <v>33</v>
+      </c>
+      <c r="D58" s="10">
+        <v>57</v>
+      </c>
+      <c r="E58" s="10">
+        <v>575.43909840000003</v>
+      </c>
+      <c r="F58" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="10">
+        <v>33</v>
+      </c>
+      <c r="D59" s="10">
+        <v>58</v>
+      </c>
+      <c r="E59" s="10">
+        <v>524.60139939999999</v>
+      </c>
+      <c r="F59" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="10">
+        <v>32</v>
+      </c>
+      <c r="D60" s="10">
+        <v>59</v>
+      </c>
+      <c r="E60" s="10">
+        <v>549.10974499999998</v>
+      </c>
+      <c r="F60" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="10">
+        <v>26</v>
+      </c>
+      <c r="D61" s="10">
+        <v>60</v>
+      </c>
+      <c r="E61" s="10">
+        <v>411.41859909999999</v>
+      </c>
+      <c r="F61" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="10">
+        <v>25</v>
+      </c>
+      <c r="D62" s="10">
+        <v>61</v>
+      </c>
+      <c r="E62" s="10">
+        <v>408.84779930000002</v>
+      </c>
+      <c r="F62" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="10">
+        <v>20</v>
+      </c>
+      <c r="D63" s="10">
+        <v>62</v>
+      </c>
+      <c r="E63" s="10">
+        <v>283.66469760000001</v>
+      </c>
+      <c r="F63" s="10">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F63">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
@@ -3282,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
@@ -4002,7 +5675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
